--- a/Posições.xlsx
+++ b/Posições.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96dbc7bcd3563408/Documentos/GitHub/IC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{3FACCDD4-C179-485E-A504-4406A2D4570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3A99BC-8014-4366-B8F6-9C2D31F720B9}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{3FACCDD4-C179-485E-A504-4406A2D4570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0ADCB84-5CB2-4DB4-96F7-F5817D61B70B}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="840" windowWidth="7500" windowHeight="11196" xr2:uid="{11E46562-3FCE-4C2B-8D9C-EE13E354DAAB}"/>
+    <workbookView xWindow="-264" yWindow="612" windowWidth="11004" windowHeight="11196" xr2:uid="{11E46562-3FCE-4C2B-8D9C-EE13E354DAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="162">
   <si>
     <t>AC</t>
   </si>
@@ -253,6 +253,273 @@
   </si>
   <si>
     <t>89-91</t>
+  </si>
+  <si>
+    <t>35-37</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>87-88</t>
+  </si>
+  <si>
+    <t>99-100</t>
+  </si>
+  <si>
+    <t>36-43</t>
+  </si>
+  <si>
+    <t>51-57</t>
+  </si>
+  <si>
+    <t>67-70</t>
+  </si>
+  <si>
+    <t>79-80</t>
+  </si>
+  <si>
+    <t>119-120</t>
+  </si>
+  <si>
+    <t>126-134</t>
+  </si>
+  <si>
+    <t>36-40</t>
+  </si>
+  <si>
+    <t>49-50</t>
+  </si>
+  <si>
+    <t>60-63</t>
+  </si>
+  <si>
+    <t>105-109</t>
+  </si>
+  <si>
+    <t>121-122</t>
+  </si>
+  <si>
+    <t>35-36</t>
+  </si>
+  <si>
+    <t>43-44</t>
+  </si>
+  <si>
+    <t>89-90</t>
+  </si>
+  <si>
+    <t>47-50</t>
+  </si>
+  <si>
+    <t>60-62</t>
+  </si>
+  <si>
+    <t>101-105</t>
+  </si>
+  <si>
+    <t>36-41</t>
+  </si>
+  <si>
+    <t>50-61</t>
+  </si>
+  <si>
+    <t>72-83</t>
+  </si>
+  <si>
+    <t>91-92</t>
+  </si>
+  <si>
+    <t>113-115</t>
+  </si>
+  <si>
+    <t>124-127</t>
+  </si>
+  <si>
+    <t>137-138</t>
+  </si>
+  <si>
+    <t>151-163</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>55-56</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>118-119</t>
+  </si>
+  <si>
+    <t>105-108</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>54-55</t>
+  </si>
+  <si>
+    <t>85-87</t>
+  </si>
+  <si>
+    <t>105-106</t>
+  </si>
+  <si>
+    <t>111-113</t>
+  </si>
+  <si>
+    <t>37-41</t>
+  </si>
+  <si>
+    <t>50-53</t>
+  </si>
+  <si>
+    <t>64-66</t>
+  </si>
+  <si>
+    <t>99-103</t>
+  </si>
+  <si>
+    <t>64-65</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>125-129</t>
+  </si>
+  <si>
+    <t>49-51</t>
+  </si>
+  <si>
+    <t>61-64</t>
+  </si>
+  <si>
+    <t>108-113</t>
+  </si>
+  <si>
+    <t>38-43</t>
+  </si>
+  <si>
+    <t>52-57</t>
+  </si>
+  <si>
+    <t>68-70</t>
+  </si>
+  <si>
+    <t>80-81</t>
+  </si>
+  <si>
+    <t>91-97</t>
+  </si>
+  <si>
+    <t>105-110</t>
+  </si>
+  <si>
+    <t>117-118</t>
+  </si>
+  <si>
+    <t>Geada</t>
+  </si>
+  <si>
+    <t>152-158</t>
+  </si>
+  <si>
+    <t>44-46</t>
+  </si>
+  <si>
+    <t>56-57</t>
+  </si>
+  <si>
+    <t>66-67</t>
+  </si>
+  <si>
+    <t>92-93</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>51-52</t>
+  </si>
+  <si>
+    <t>62-64</t>
+  </si>
+  <si>
+    <t>97-100</t>
+  </si>
+  <si>
+    <t>53-54</t>
+  </si>
+  <si>
+    <t>86-87</t>
+  </si>
+  <si>
+    <t>38-48</t>
+  </si>
+  <si>
+    <t>56-64</t>
+  </si>
+  <si>
+    <t>74-78</t>
+  </si>
+  <si>
+    <t>98-106</t>
+  </si>
+  <si>
+    <t>115-122</t>
+  </si>
+  <si>
+    <t>161-162</t>
+  </si>
+  <si>
+    <t>173-181</t>
+  </si>
+  <si>
+    <t>52-58</t>
+  </si>
+  <si>
+    <t>68-72</t>
+  </si>
+  <si>
+    <t>90-96</t>
+  </si>
+  <si>
+    <t>144-145</t>
+  </si>
+  <si>
+    <t>152-153</t>
+  </si>
+  <si>
+    <t>157-162</t>
+  </si>
+  <si>
+    <t>37-38</t>
+  </si>
+  <si>
+    <t>33-35</t>
+  </si>
+  <si>
+    <t>43-49</t>
+  </si>
+  <si>
+    <t>72-74</t>
+  </si>
+  <si>
+    <t>83-85</t>
+  </si>
+  <si>
+    <t>109-112</t>
+  </si>
+  <si>
+    <t>131-139</t>
+  </si>
+  <si>
+    <t>95-96</t>
   </si>
 </sst>
 </file>
@@ -605,15 +872,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055D63DA-B3FB-4940-B5D0-C4593CDFE46A}">
-  <dimension ref="B1:M27"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -648,10 +917,16 @@
         <v>60</v>
       </c>
       <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -679,8 +954,11 @@
       <c r="L2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -702,43 +980,142 @@
       <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>51</v>
+      </c>
+      <c r="J5">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>64</v>
+      </c>
+      <c r="O5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <v>103</v>
+      </c>
+      <c r="K6">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>61</v>
       </c>
@@ -772,157 +1149,685 @@
       <c r="L8">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>74</v>
+      </c>
+      <c r="L9">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
+      </c>
+      <c r="J10">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>74</v>
+      </c>
+      <c r="I12">
+        <v>82</v>
+      </c>
+      <c r="J12">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>74</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <v>91</v>
+      </c>
+      <c r="L13">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14">
+        <v>63</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="H16">
+        <v>83</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16">
+        <v>112</v>
+      </c>
+      <c r="L16">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>73</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>86</v>
+      </c>
+      <c r="J17">
+        <v>95</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18">
+        <v>129</v>
+      </c>
+      <c r="L18">
+        <v>135</v>
+      </c>
+      <c r="M18">
+        <v>140</v>
+      </c>
+      <c r="N18">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19">
+        <v>102</v>
+      </c>
+      <c r="L19">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <v>79</v>
+      </c>
+      <c r="K20">
+        <v>87</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="K21">
+        <v>62</v>
+      </c>
+      <c r="L21">
+        <v>69</v>
+      </c>
+      <c r="O21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22">
+        <v>62</v>
+      </c>
+      <c r="H22">
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23">
+        <v>132</v>
+      </c>
+      <c r="K23">
+        <v>142</v>
+      </c>
+      <c r="L23">
+        <v>148</v>
+      </c>
+      <c r="M23">
+        <v>154</v>
+      </c>
+      <c r="N23" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24">
+        <v>118</v>
+      </c>
+      <c r="K24">
+        <v>130</v>
+      </c>
+      <c r="L24">
+        <v>137</v>
+      </c>
+      <c r="M24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25">
+        <v>47</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>81</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26">
+        <v>121</v>
+      </c>
+      <c r="L26">
+        <v>126</v>
+      </c>
+      <c r="N26">
+        <v>99</v>
+      </c>
+      <c r="O26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>62</v>
+      </c>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>76</v>
+      </c>
+      <c r="K27">
+        <v>83</v>
+      </c>
+      <c r="L27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Posições.xlsx
+++ b/Posições.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96dbc7bcd3563408/Documentos/GitHub/IC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{3FACCDD4-C179-485E-A504-4406A2D4570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70ABAF16-0DCC-412D-B090-827ABB58309E}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{3FACCDD4-C179-485E-A504-4406A2D4570E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0CA9C0-1E10-4755-AEC3-7535E6B70B31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11E46562-3FCE-4C2B-8D9C-EE13E354DAAB}"/>
   </bookViews>
@@ -877,7 +877,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,7 +1736,7 @@
         <v>154</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>58</v>
